--- a/data/instance/20/schedule_5.xlsx
+++ b/data/instance/20/schedule_5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
+    <numFmt formatCode="[hh]:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -46,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -402,20 +402,18 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EK433</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.3756944444444444</v>
+        <v>0.00625</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.3993055555555556</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C13</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -432,24 +430,22 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SQ288</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.3784722222222222</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.3993055555555556</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>E26</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,24 +458,22 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>JT153</t>
-        </is>
+      <c r="B4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.3826388888888889</v>
+        <v>0.0375</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.0625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>D30</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -492,24 +486,22 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SQ245</t>
-        </is>
+      <c r="B5" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.0125</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -522,24 +514,22 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>SQ972</t>
-        </is>
+      <c r="B6" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>F34</t>
+          <t>D33</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -552,24 +542,22 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>UL307</t>
-        </is>
+      <c r="B7" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.3826388888888889</v>
+        <v>0.03125</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.40625</v>
+        <v>0.05694444444444444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A9</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -582,20 +570,18 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SQ178</t>
-        </is>
+      <c r="B8" t="n">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.3861111111111111</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.02430555555555556</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>A14</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -612,24 +598,22 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SQ992</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.3868055555555556</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>E22</t>
+          <t>E28</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -642,24 +626,22 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>TR276</t>
-        </is>
+      <c r="B10" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.3861111111111111</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.02986111111111111</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>D37</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -672,24 +654,22 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MH604</t>
-        </is>
+      <c r="B11" t="n">
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.3923611111111111</v>
+        <v>0.02013888888888889</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>F32</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -702,24 +682,22 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SQ856</t>
-        </is>
+      <c r="B12" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.3895833333333333</v>
+        <v>0.02361111111111111</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.4131944444444444</v>
+        <v>0.04930555555555555</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A12</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -732,24 +710,22 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GA825</t>
-        </is>
+      <c r="B13" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.02847222222222222</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A17</t>
+          <t>F41</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -762,24 +738,22 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MI348</t>
-        </is>
+      <c r="B14" t="n">
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.06180555555555556</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>F37</t>
+          <t>A1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -792,20 +766,18 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MI194</t>
-        </is>
+      <c r="B15" t="n">
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.3972222222222222</v>
+        <v>0.01597222222222222</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.4201388888888889</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>F54</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -822,20 +794,18 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MI482</t>
-        </is>
+      <c r="B16" t="n">
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.3965277777777778</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.4201388888888889</v>
+        <v>0.05625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>F52</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -852,24 +822,22 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EK432</t>
-        </is>
+      <c r="B17" t="n">
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.4006944444444445</v>
+        <v>0.0006944444444444445</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.02708333333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>C23</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -882,24 +850,22 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>OD802</t>
-        </is>
+      <c r="B18" t="n">
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.4006944444444445</v>
+        <v>0.01944444444444444</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.04097222222222222</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A16</t>
+          <t>C18</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -912,24 +878,22 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>UA2SI</t>
-        </is>
+      <c r="B19" t="n">
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.4</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -942,24 +906,22 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3K281</t>
-        </is>
+      <c r="B20" t="n">
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.4041666666666667</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.4270833333333333</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D40</t>
+          <t>D46</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -972,24 +934,22 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MI326</t>
-        </is>
+      <c r="B21" t="n">
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.4041666666666667</v>
+        <v>0.03263888888888889</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.4270833333333333</v>
+        <v>0.05763888888888889</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>F30</t>
+          <t>E27</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -999,6 +959,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/instance/20/schedule_5.xlsx
+++ b/data/instance/20/schedule_5.xlsx
@@ -406,18 +406,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.00625</v>
+        <v>0.03194444444444444</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.05902777777777778</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>A11</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -434,18 +434,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.01805555555555555</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E26</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -462,14 +462,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.0375</v>
+        <v>0.01527777777777778</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.0625</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D30</t>
+          <t>E8</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -490,18 +490,18 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.0125</v>
+        <v>0.01597222222222222</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.04236111111111111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A8</t>
+          <t>D40</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -518,18 +518,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.03888888888888889</v>
+        <v>0.05972222222222223</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D33</t>
+          <t>F34</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -546,14 +546,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.03125</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.05694444444444444</v>
+        <v>0.02708333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -574,14 +574,14 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.002777777777777778</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.02430555555555556</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A14</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -602,18 +602,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.04861111111111111</v>
+        <v>0.02152777777777778</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>E28</t>
+          <t>A19</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -630,14 +630,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.006944444444444444</v>
+        <v>0.04097222222222222</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.02986111111111111</v>
+        <v>0.0625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>D37</t>
+          <t>E23</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -658,18 +658,18 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.02013888888888889</v>
+        <v>0.0375</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.06458333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A11</t>
+          <t>D36</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -686,18 +686,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.02361111111111111</v>
+        <v>0.01944444444444444</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.04930555555555555</v>
+        <v>0.04513888888888889</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>D34</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -714,14 +714,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.004166666666666667</v>
+        <v>0.02708333333333333</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.02847222222222222</v>
+        <v>0.04930555555555555</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>F41</t>
+          <t>F59</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -742,18 +742,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.06180555555555556</v>
+        <v>0.03125</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>C24</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -770,18 +770,18 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.01597222222222222</v>
+        <v>0.009027777777777777</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.03958333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>F54</t>
+          <t>D44</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -798,14 +798,14 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.03958333333333333</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.05625</v>
+        <v>0.06388888888888888</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -826,18 +826,18 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.0006944444444444445</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.02708333333333333</v>
+        <v>0.03541666666666667</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>F35</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -854,18 +854,18 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.01944444444444444</v>
+        <v>0.00625</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.04097222222222222</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>C18</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -882,18 +882,18 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.02152777777777778</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.04583333333333333</v>
+        <v>0.04375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F59</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -910,18 +910,18 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.03680555555555556</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.06041666666666667</v>
+        <v>0.06388888888888888</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>D46</t>
+          <t>E27</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -938,14 +938,14 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.03263888888888889</v>
+        <v>0.03819444444444445</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.05763888888888889</v>
+        <v>0.06041666666666667</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>E27</t>
+          <t>F42</t>
         </is>
       </c>
       <c r="F21" t="n">
